--- a/Assignment Test_QA_Riswandha Adhitia_Tokopedia.xlsx
+++ b/Assignment Test_QA_Riswandha Adhitia_Tokopedia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project Xsis\Assignment\AssignmentQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A44320-6420-4386-ADAC-425B41766024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA0A60-A3B9-496D-BB88-D5F7ACD1D967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,9 +964,6 @@
     <t>[Form][User id] - User Id Mengandung Spesial karakter</t>
   </si>
   <si>
-    <t>Pada Saat memasukkan User id Pengguna dapat memasukkan/mengisikan User Id mengandung spesial karakter</t>
-  </si>
-  <si>
     <t>1. Buka Form
 2. Masukkan user id di Choose User Id</t>
   </si>
@@ -983,20 +980,10 @@
     <t>[Form][Confirm Password] - konfirmasi password tidak menjadi rahasia karena terlihat dan tidak ada tanda keterangan untuk melihat atau menyembunyikan password</t>
   </si>
   <si>
-    <t xml:space="preserve">pada saat memasukkan konfirmasi password. password yang telah dimasukkan tidak tersembunyikan untuk menjadi rahasia atau menjadi tanda bintang. agar password dapat di lihat atau disembunyikan sisipkan tanda untuk bisa digunakan untuk menyembunyikan atau melihat password untuk memeriksa password </t>
-  </si>
-  <si>
-    <t>1. buka Form 
-2. memasukkan konfirmasi password di kolom confirm password</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
     <t>[Form][Name] - Name tidak boleh mengandung spesial karakter</t>
-  </si>
-  <si>
-    <t>pada saat memasukkan name pengguna dapat menggunakan spesial karakter</t>
   </si>
   <si>
     <t>1. buka form
@@ -1006,9 +993,6 @@
     <t>[Form][Email] - berikan contoh agar tidak diisi dengan nama saja tanpa alamat domain</t>
   </si>
   <si>
-    <t>email dapat terjadi kesalahan. beri contoh pengisian email atau tampilkan keterangan email belum valid untuk pengisisan email yang belum valid.</t>
-  </si>
-  <si>
     <t>1. buka form 
 2. masukkan email yang valid di kolom dialog email</t>
   </si>
@@ -1019,11 +1003,27 @@
     <t>[Form][Verification code] - Kode verifikasi harus berupa angka</t>
   </si>
   <si>
-    <t>pada saat memasukkan kode verifikasi harus berupa angka tidak diperbolehkan selain angka dan harus menampilka keterangan kode verifikasi belum valid untuk pengisian kode verifikasi  yang belum valid</t>
-  </si>
-  <si>
     <t>1. buka form
 2. masukkan kode verifikasi yang valid pada kolom kode verifikasi</t>
+  </si>
+  <si>
+    <t>Ketika menginput User ID, pengguna dapat memasukkan/mengisikan User ID yang mengandung karakter khusus/spesial.</t>
+  </si>
+  <si>
+    <t>1. Buka Form 
+2. memasukkan konfirmasi password di kolom confirm password</t>
+  </si>
+  <si>
+    <t>Pada konfirmasi password, tampilan password tidak menggunakan tanda bintang (*). Tambahkan opsi untuk menyembunyikan atau menampilkan password dengan tombol khusus.</t>
+  </si>
+  <si>
+    <t>Pengguna dapat menggunakan karakter spesial saat memasukkan nama.</t>
+  </si>
+  <si>
+    <t>Pengisian email bisa mengalami kesalahan. Contohnya, masukan email yang tidak valid akan menampilkan keterangan 'Email belum valid'.</t>
+  </si>
+  <si>
+    <t>Kode verifikasi hanya boleh berupa angka. Setiap input selain angka akan menampilkan keterangan 'Kode verifikasi tidak valid.</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1033,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1084,6 +1084,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1153,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1211,6 +1218,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1223,11 +1236,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1473,14 +1486,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1492,15 +1505,15 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2064,14 +2077,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -2083,15 +2096,15 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2190,7 +2203,7 @@
       <c r="E5" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -2220,7 +2233,7 @@
       <c r="E6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="23" t="s">
         <v>101</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -2250,7 +2263,7 @@
       <c r="E7" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="23">
         <v>12345</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -2280,7 +2293,7 @@
       <c r="E8" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="23">
         <v>123456789012345</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -2310,7 +2323,7 @@
       <c r="E9" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="6" t="s">
         <v>106</v>
       </c>
@@ -2338,7 +2351,7 @@
       <c r="E10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="23" t="s">
         <v>72</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -2368,7 +2381,7 @@
       <c r="E11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="23" t="s">
         <v>119</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -2398,7 +2411,7 @@
       <c r="E12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="23">
         <f>6282232121234</f>
         <v>6282232121234</v>
       </c>
@@ -2459,7 +2472,7 @@
       <c r="E14" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="24" t="s">
         <v>130</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -2505,7 +2518,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2569,14 +2582,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -2588,15 +2601,15 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2943,14 +2956,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -2962,15 +2975,15 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3227,14 +3240,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3246,15 +3259,15 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3436,11 +3449,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
@@ -3523,8 +3536,8 @@
   </sheetPr>
   <dimension ref="A2:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3574,79 +3587,79 @@
         <v>233</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>235</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>238</v>
-      </c>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>45277</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" s="22" t="s">
+      <c r="I4" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>238</v>
-      </c>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>45277</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>245</v>
+        <v>240</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>241</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H5" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>237</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>238</v>
       </c>
       <c r="J5" s="21"/>
     </row>
@@ -3655,54 +3668,54 @@
         <v>45277</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>247</v>
+        <v>242</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>251</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="H6" s="22" t="s">
+      <c r="I6" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>238</v>
-      </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>45277</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>251</v>
+        <v>245</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>252</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H7" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>237</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>238</v>
       </c>
       <c r="J7" s="21"/>
     </row>
@@ -3719,5 +3732,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>